--- a/data/zenodo_ivan/generation/CHE_gen_waste.xlsx
+++ b/data/zenodo_ivan/generation/CHE_gen_waste.xlsx
@@ -28,7 +28,7 @@
     <t>CHE_gen_waste.xlsx</t>
   </si>
   <si>
-    <t>2023-01-05 18:35:30</t>
+    <t>2023-01-06 14:43:57</t>
   </si>
   <si>
     <t>Ivan Ruiz Manuel</t>

--- a/data/zenodo_ivan/generation/CHE_gen_waste.xlsx
+++ b/data/zenodo_ivan/generation/CHE_gen_waste.xlsx
@@ -1,20 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/generation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06ABA637-CD5E-C945-9800-4156D79C89C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="38400" yWindow="-2860" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="35">
   <si>
     <t>Name:</t>
   </si>
@@ -91,29 +107,41 @@
     <t>resource</t>
   </si>
   <si>
-    <t>TODO: find</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
     <t>EUR2010/GJ</t>
   </si>
   <si>
-    <t>MarcXin</t>
-  </si>
-  <si>
     <t>JRC ENSPRESO database</t>
   </si>
   <si>
-    <t>Other source: BFE, Verband der Betreiber Schweizerischer Abfallverwertungsanlagen, https://www.bafu.admin.ch/bafu/it/home/temi/rifiuti/stato/indicatori.html : Approx -18 CHF/GJ assuming negative gate fee and energy content of 9GJ/ton (Arup 2011), seems quite high. Using JRC ENSPRESO estimate instead</t>
+    <t>https://doi.org/10.1016/j.esr.2019.100379</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>Irrelevant for renewable generation</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>MINBIOMUN1, 2010, ENS_Med_ForestBaU</t>
+  </si>
+  <si>
+    <t>Direct</t>
+  </si>
+  <si>
+    <t>MINBIOMUN1, 2010, ENS_Med_ForestBaU. Other source: BFE, Verband der Betreiber Schweizerischer Abfallverwertungsanlagen, https://www.bafu.admin.ch/bafu/it/home/temi/rifiuti/stato/indicatori.html : Approx -18 CHF/GJ assuming negative gate fee and energy content of 9GJ/ton (Arup 2011), seems quite high. Using JRC ENSPRESO estimate instead</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +153,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -162,20 +198,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -222,7 +269,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,9 +301,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,6 +353,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -463,14 +546,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M76" sqref="M76"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -486,7 +572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -494,7 +580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -535,12 +621,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -549,24 +638,22 @@
         <v>1990</v>
       </c>
       <c r="H6">
-        <v>0.458</v>
+        <v>0.17302990651542799</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>26</v>
+      </c>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -575,24 +662,22 @@
         <v>1991</v>
       </c>
       <c r="H7">
-        <v>0.458</v>
+        <v>0.17302990651542799</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>26</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -601,24 +686,22 @@
         <v>1992</v>
       </c>
       <c r="H8">
-        <v>0.458</v>
+        <v>0.17302990651542799</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>26</v>
+      </c>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -627,24 +710,22 @@
         <v>1993</v>
       </c>
       <c r="H9">
-        <v>0.458</v>
+        <v>0.17302990651542799</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>26</v>
+      </c>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -653,24 +734,22 @@
         <v>1994</v>
       </c>
       <c r="H10">
-        <v>0.458</v>
+        <v>0.17302990651542799</v>
       </c>
       <c r="I10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>26</v>
+      </c>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -679,24 +758,22 @@
         <v>1995</v>
       </c>
       <c r="H11">
-        <v>0.458</v>
+        <v>0.17302990651542799</v>
       </c>
       <c r="I11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>26</v>
+      </c>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -705,24 +782,22 @@
         <v>1996</v>
       </c>
       <c r="H12">
-        <v>0.458</v>
+        <v>0.17302990651542799</v>
       </c>
       <c r="I12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>26</v>
+      </c>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -731,24 +806,22 @@
         <v>1997</v>
       </c>
       <c r="H13">
-        <v>0.458</v>
+        <v>0.17302990651542799</v>
       </c>
       <c r="I13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>26</v>
+      </c>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -757,24 +830,22 @@
         <v>1998</v>
       </c>
       <c r="H14">
-        <v>0.458</v>
+        <v>0.17302990651542799</v>
       </c>
       <c r="I14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>26</v>
+      </c>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -783,24 +854,22 @@
         <v>1999</v>
       </c>
       <c r="H15">
-        <v>0.458</v>
+        <v>0.17302990651542799</v>
       </c>
       <c r="I15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>26</v>
+      </c>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -809,24 +878,22 @@
         <v>2000</v>
       </c>
       <c r="H16">
-        <v>0.458</v>
+        <v>0.17302990651542799</v>
       </c>
       <c r="I16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>26</v>
+      </c>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
@@ -835,24 +902,22 @@
         <v>2001</v>
       </c>
       <c r="H17">
-        <v>0.458</v>
+        <v>0.17302990651542799</v>
       </c>
       <c r="I17" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>26</v>
+      </c>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -861,24 +926,22 @@
         <v>2002</v>
       </c>
       <c r="H18">
-        <v>0.458</v>
+        <v>0.17302990651542799</v>
       </c>
       <c r="I18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>26</v>
+      </c>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -887,24 +950,22 @@
         <v>2003</v>
       </c>
       <c r="H19">
-        <v>0.458</v>
+        <v>0.17302990651542799</v>
       </c>
       <c r="I19" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>26</v>
+      </c>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -913,27 +974,22 @@
         <v>2004</v>
       </c>
       <c r="H20">
-        <v>0.458</v>
+        <v>0.17302990651542799</v>
       </c>
       <c r="I20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" t="s">
-        <v>29</v>
-      </c>
-      <c r="M20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>26</v>
+      </c>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -942,27 +998,22 @@
         <v>2005</v>
       </c>
       <c r="H21">
-        <v>0.458</v>
+        <v>0.17302990651542799</v>
       </c>
       <c r="I21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>26</v>
+      </c>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -971,27 +1022,22 @@
         <v>2006</v>
       </c>
       <c r="H22">
-        <v>0.458</v>
+        <v>0.17302990651542799</v>
       </c>
       <c r="I22" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" t="s">
-        <v>29</v>
-      </c>
-      <c r="M22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>26</v>
+      </c>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -1000,27 +1046,22 @@
         <v>2007</v>
       </c>
       <c r="H23">
-        <v>0.458</v>
+        <v>0.17302990651542799</v>
       </c>
       <c r="I23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" t="s">
-        <v>29</v>
-      </c>
-      <c r="M23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>26</v>
+      </c>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
       </c>
       <c r="D24" t="s">
         <v>21</v>
@@ -1029,27 +1070,22 @@
         <v>2008</v>
       </c>
       <c r="H24">
-        <v>0.458</v>
+        <v>0.17302990651542799</v>
       </c>
       <c r="I24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" t="s">
-        <v>29</v>
-      </c>
-      <c r="M24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>26</v>
+      </c>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>19</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -1058,27 +1094,22 @@
         <v>2009</v>
       </c>
       <c r="H25">
-        <v>0.458</v>
+        <v>0.17302990651542799</v>
       </c>
       <c r="I25" t="s">
-        <v>27</v>
-      </c>
-      <c r="J25" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25" t="s">
-        <v>29</v>
-      </c>
-      <c r="M25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>26</v>
+      </c>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -1087,27 +1118,30 @@
         <v>2010</v>
       </c>
       <c r="H26">
-        <v>0.458</v>
+        <v>0.17302990651542799</v>
       </c>
       <c r="I26" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" t="s">
         <v>27</v>
       </c>
-      <c r="J26" t="s">
+      <c r="L26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K26" t="s">
-        <v>29</v>
-      </c>
       <c r="M26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>19</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -1116,27 +1150,22 @@
         <v>2011</v>
       </c>
       <c r="H27">
-        <v>0.458</v>
+        <v>0.17302990651542799</v>
       </c>
       <c r="I27" t="s">
-        <v>27</v>
-      </c>
-      <c r="J27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27" t="s">
-        <v>29</v>
-      </c>
-      <c r="M27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>26</v>
+      </c>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>19</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
       </c>
       <c r="D28" t="s">
         <v>21</v>
@@ -1145,27 +1174,22 @@
         <v>2012</v>
       </c>
       <c r="H28">
-        <v>0.458</v>
+        <v>0.17302990651542799</v>
       </c>
       <c r="I28" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28" t="s">
-        <v>28</v>
-      </c>
-      <c r="K28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>26</v>
+      </c>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>19</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
       </c>
       <c r="D29" t="s">
         <v>21</v>
@@ -1174,27 +1198,22 @@
         <v>2013</v>
       </c>
       <c r="H29">
-        <v>0.458</v>
+        <v>0.17302990651542799</v>
       </c>
       <c r="I29" t="s">
-        <v>27</v>
-      </c>
-      <c r="J29" t="s">
-        <v>28</v>
-      </c>
-      <c r="K29" t="s">
-        <v>29</v>
-      </c>
-      <c r="M29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>26</v>
+      </c>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>19</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
       </c>
       <c r="D30" t="s">
         <v>21</v>
@@ -1203,24 +1222,22 @@
         <v>2014</v>
       </c>
       <c r="H30">
-        <v>0.458</v>
+        <v>0.17302990651542799</v>
       </c>
       <c r="I30" t="s">
-        <v>27</v>
-      </c>
-      <c r="J30" t="s">
-        <v>28</v>
-      </c>
-      <c r="K30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>26</v>
+      </c>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>19</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
@@ -1229,24 +1246,22 @@
         <v>2015</v>
       </c>
       <c r="H31">
-        <v>0.458</v>
+        <v>0.17302990651542799</v>
       </c>
       <c r="I31" t="s">
-        <v>27</v>
-      </c>
-      <c r="J31" t="s">
-        <v>28</v>
-      </c>
-      <c r="K31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>26</v>
+      </c>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>19</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
       </c>
       <c r="D32" t="s">
         <v>21</v>
@@ -1255,24 +1270,22 @@
         <v>2016</v>
       </c>
       <c r="H32">
-        <v>0.458</v>
+        <v>0.17302990651542799</v>
       </c>
       <c r="I32" t="s">
-        <v>27</v>
-      </c>
-      <c r="J32" t="s">
-        <v>28</v>
-      </c>
-      <c r="K32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>26</v>
+      </c>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>19</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
@@ -1281,24 +1294,22 @@
         <v>2017</v>
       </c>
       <c r="H33">
-        <v>0.458</v>
+        <v>0.17302990651542799</v>
       </c>
       <c r="I33" t="s">
-        <v>27</v>
-      </c>
-      <c r="J33" t="s">
-        <v>28</v>
-      </c>
-      <c r="K33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>26</v>
+      </c>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>19</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
@@ -1307,24 +1318,22 @@
         <v>2018</v>
       </c>
       <c r="H34">
-        <v>0.458</v>
+        <v>0.17302990651542799</v>
       </c>
       <c r="I34" t="s">
-        <v>27</v>
-      </c>
-      <c r="J34" t="s">
-        <v>28</v>
-      </c>
-      <c r="K34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>26</v>
+      </c>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>19</v>
       </c>
       <c r="B35" t="s">
         <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>33</v>
       </c>
       <c r="D35" t="s">
         <v>21</v>
@@ -1333,24 +1342,22 @@
         <v>2019</v>
       </c>
       <c r="H35">
-        <v>0.458</v>
+        <v>0.17302990651542799</v>
       </c>
       <c r="I35" t="s">
-        <v>27</v>
-      </c>
-      <c r="J35" t="s">
-        <v>28</v>
-      </c>
-      <c r="K35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>26</v>
+      </c>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>19</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
       </c>
       <c r="D36" t="s">
         <v>22</v>
@@ -1358,16 +1365,22 @@
       <c r="F36">
         <v>1990</v>
       </c>
-      <c r="H36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="H36">
+        <v>17.192</v>
+      </c>
+      <c r="I36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>19</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
       </c>
       <c r="D37" t="s">
         <v>22</v>
@@ -1375,16 +1388,22 @@
       <c r="F37">
         <v>1991</v>
       </c>
-      <c r="H37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="H37">
+        <v>17.192</v>
+      </c>
+      <c r="I37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>19</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
       </c>
       <c r="D38" t="s">
         <v>22</v>
@@ -1392,16 +1411,22 @@
       <c r="F38">
         <v>1992</v>
       </c>
-      <c r="H38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="H38">
+        <v>17.192</v>
+      </c>
+      <c r="I38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>19</v>
       </c>
       <c r="B39" t="s">
         <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>33</v>
       </c>
       <c r="D39" t="s">
         <v>22</v>
@@ -1409,16 +1434,22 @@
       <c r="F39">
         <v>1993</v>
       </c>
-      <c r="H39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="H39">
+        <v>17.192</v>
+      </c>
+      <c r="I39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>19</v>
       </c>
       <c r="B40" t="s">
         <v>20</v>
+      </c>
+      <c r="C40" t="s">
+        <v>33</v>
       </c>
       <c r="D40" t="s">
         <v>22</v>
@@ -1426,16 +1457,22 @@
       <c r="F40">
         <v>1994</v>
       </c>
-      <c r="H40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="H40">
+        <v>17.192</v>
+      </c>
+      <c r="I40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>19</v>
       </c>
       <c r="B41" t="s">
         <v>20</v>
+      </c>
+      <c r="C41" t="s">
+        <v>33</v>
       </c>
       <c r="D41" t="s">
         <v>22</v>
@@ -1443,16 +1480,22 @@
       <c r="F41">
         <v>1995</v>
       </c>
-      <c r="H41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="H41">
+        <v>17.192</v>
+      </c>
+      <c r="I41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>19</v>
       </c>
       <c r="B42" t="s">
         <v>20</v>
+      </c>
+      <c r="C42" t="s">
+        <v>33</v>
       </c>
       <c r="D42" t="s">
         <v>22</v>
@@ -1460,16 +1503,22 @@
       <c r="F42">
         <v>1996</v>
       </c>
-      <c r="H42" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="H42">
+        <v>17.192</v>
+      </c>
+      <c r="I42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>19</v>
       </c>
       <c r="B43" t="s">
         <v>20</v>
+      </c>
+      <c r="C43" t="s">
+        <v>33</v>
       </c>
       <c r="D43" t="s">
         <v>22</v>
@@ -1477,16 +1526,22 @@
       <c r="F43">
         <v>1997</v>
       </c>
-      <c r="H43" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="H43">
+        <v>17.192</v>
+      </c>
+      <c r="I43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>19</v>
       </c>
       <c r="B44" t="s">
         <v>20</v>
+      </c>
+      <c r="C44" t="s">
+        <v>33</v>
       </c>
       <c r="D44" t="s">
         <v>22</v>
@@ -1494,16 +1549,22 @@
       <c r="F44">
         <v>1998</v>
       </c>
-      <c r="H44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="H44">
+        <v>17.192</v>
+      </c>
+      <c r="I44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>19</v>
       </c>
       <c r="B45" t="s">
         <v>20</v>
+      </c>
+      <c r="C45" t="s">
+        <v>33</v>
       </c>
       <c r="D45" t="s">
         <v>22</v>
@@ -1511,16 +1572,22 @@
       <c r="F45">
         <v>1999</v>
       </c>
-      <c r="H45" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="H45">
+        <v>17.192</v>
+      </c>
+      <c r="I45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>19</v>
       </c>
       <c r="B46" t="s">
         <v>20</v>
+      </c>
+      <c r="C46" t="s">
+        <v>33</v>
       </c>
       <c r="D46" t="s">
         <v>22</v>
@@ -1528,16 +1595,22 @@
       <c r="F46">
         <v>2000</v>
       </c>
-      <c r="H46" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="H46">
+        <v>17.192</v>
+      </c>
+      <c r="I46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>19</v>
       </c>
       <c r="B47" t="s">
         <v>20</v>
+      </c>
+      <c r="C47" t="s">
+        <v>33</v>
       </c>
       <c r="D47" t="s">
         <v>22</v>
@@ -1545,16 +1618,22 @@
       <c r="F47">
         <v>2001</v>
       </c>
-      <c r="H47" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="H47">
+        <v>17.192</v>
+      </c>
+      <c r="I47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>19</v>
       </c>
       <c r="B48" t="s">
         <v>20</v>
+      </c>
+      <c r="C48" t="s">
+        <v>33</v>
       </c>
       <c r="D48" t="s">
         <v>22</v>
@@ -1562,16 +1641,22 @@
       <c r="F48">
         <v>2002</v>
       </c>
-      <c r="H48" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="H48">
+        <v>17.192</v>
+      </c>
+      <c r="I48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>19</v>
       </c>
       <c r="B49" t="s">
         <v>20</v>
+      </c>
+      <c r="C49" t="s">
+        <v>33</v>
       </c>
       <c r="D49" t="s">
         <v>22</v>
@@ -1579,16 +1664,22 @@
       <c r="F49">
         <v>2003</v>
       </c>
-      <c r="H49" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="H49">
+        <v>17.192</v>
+      </c>
+      <c r="I49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>19</v>
       </c>
       <c r="B50" t="s">
         <v>20</v>
+      </c>
+      <c r="C50" t="s">
+        <v>33</v>
       </c>
       <c r="D50" t="s">
         <v>22</v>
@@ -1596,16 +1687,22 @@
       <c r="F50">
         <v>2004</v>
       </c>
-      <c r="H50" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="H50">
+        <v>17.192</v>
+      </c>
+      <c r="I50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>19</v>
       </c>
       <c r="B51" t="s">
         <v>20</v>
+      </c>
+      <c r="C51" t="s">
+        <v>33</v>
       </c>
       <c r="D51" t="s">
         <v>22</v>
@@ -1613,16 +1710,22 @@
       <c r="F51">
         <v>2005</v>
       </c>
-      <c r="H51" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="H51">
+        <v>17.192</v>
+      </c>
+      <c r="I51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>19</v>
       </c>
       <c r="B52" t="s">
         <v>20</v>
+      </c>
+      <c r="C52" t="s">
+        <v>33</v>
       </c>
       <c r="D52" t="s">
         <v>22</v>
@@ -1630,16 +1733,22 @@
       <c r="F52">
         <v>2006</v>
       </c>
-      <c r="H52" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="H52">
+        <v>17.192</v>
+      </c>
+      <c r="I52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>19</v>
       </c>
       <c r="B53" t="s">
         <v>20</v>
+      </c>
+      <c r="C53" t="s">
+        <v>33</v>
       </c>
       <c r="D53" t="s">
         <v>22</v>
@@ -1647,16 +1756,22 @@
       <c r="F53">
         <v>2007</v>
       </c>
-      <c r="H53" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="H53">
+        <v>17.192</v>
+      </c>
+      <c r="I53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>19</v>
       </c>
       <c r="B54" t="s">
         <v>20</v>
+      </c>
+      <c r="C54" t="s">
+        <v>33</v>
       </c>
       <c r="D54" t="s">
         <v>22</v>
@@ -1664,16 +1779,22 @@
       <c r="F54">
         <v>2008</v>
       </c>
-      <c r="H54" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="H54">
+        <v>17.192</v>
+      </c>
+      <c r="I54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>19</v>
       </c>
       <c r="B55" t="s">
         <v>20</v>
+      </c>
+      <c r="C55" t="s">
+        <v>33</v>
       </c>
       <c r="D55" t="s">
         <v>22</v>
@@ -1681,16 +1802,22 @@
       <c r="F55">
         <v>2009</v>
       </c>
-      <c r="H55" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="H55">
+        <v>17.192</v>
+      </c>
+      <c r="I55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>19</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
+      </c>
+      <c r="C56" t="s">
+        <v>33</v>
       </c>
       <c r="D56" t="s">
         <v>22</v>
@@ -1698,16 +1825,31 @@
       <c r="F56">
         <v>2010</v>
       </c>
-      <c r="H56" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="H56">
+        <v>17.192</v>
+      </c>
+      <c r="I56" t="s">
+        <v>31</v>
+      </c>
+      <c r="K56" t="s">
+        <v>27</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>19</v>
       </c>
       <c r="B57" t="s">
         <v>20</v>
+      </c>
+      <c r="C57" t="s">
+        <v>33</v>
       </c>
       <c r="D57" t="s">
         <v>22</v>
@@ -1715,16 +1857,22 @@
       <c r="F57">
         <v>2011</v>
       </c>
-      <c r="H57" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="H57">
+        <v>17.192</v>
+      </c>
+      <c r="I57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>19</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
+      </c>
+      <c r="C58" t="s">
+        <v>33</v>
       </c>
       <c r="D58" t="s">
         <v>22</v>
@@ -1732,16 +1880,22 @@
       <c r="F58">
         <v>2012</v>
       </c>
-      <c r="H58" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="H58">
+        <v>17.192</v>
+      </c>
+      <c r="I58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>19</v>
       </c>
       <c r="B59" t="s">
         <v>20</v>
+      </c>
+      <c r="C59" t="s">
+        <v>33</v>
       </c>
       <c r="D59" t="s">
         <v>22</v>
@@ -1749,16 +1903,22 @@
       <c r="F59">
         <v>2013</v>
       </c>
-      <c r="H59" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="H59">
+        <v>17.192</v>
+      </c>
+      <c r="I59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>19</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
+      </c>
+      <c r="C60" t="s">
+        <v>33</v>
       </c>
       <c r="D60" t="s">
         <v>22</v>
@@ -1766,16 +1926,22 @@
       <c r="F60">
         <v>2014</v>
       </c>
-      <c r="H60" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="H60">
+        <v>17.192</v>
+      </c>
+      <c r="I60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>19</v>
       </c>
       <c r="B61" t="s">
         <v>20</v>
+      </c>
+      <c r="C61" t="s">
+        <v>33</v>
       </c>
       <c r="D61" t="s">
         <v>22</v>
@@ -1783,16 +1949,22 @@
       <c r="F61">
         <v>2015</v>
       </c>
-      <c r="H61" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="H61">
+        <v>17.192</v>
+      </c>
+      <c r="I61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>19</v>
       </c>
       <c r="B62" t="s">
         <v>20</v>
+      </c>
+      <c r="C62" t="s">
+        <v>33</v>
       </c>
       <c r="D62" t="s">
         <v>22</v>
@@ -1800,16 +1972,22 @@
       <c r="F62">
         <v>2016</v>
       </c>
-      <c r="H62" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="H62">
+        <v>17.192</v>
+      </c>
+      <c r="I62" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>19</v>
       </c>
       <c r="B63" t="s">
         <v>20</v>
+      </c>
+      <c r="C63" t="s">
+        <v>33</v>
       </c>
       <c r="D63" t="s">
         <v>22</v>
@@ -1817,16 +1995,22 @@
       <c r="F63">
         <v>2017</v>
       </c>
-      <c r="H63" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="H63">
+        <v>17.192</v>
+      </c>
+      <c r="I63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>19</v>
       </c>
       <c r="B64" t="s">
         <v>20</v>
+      </c>
+      <c r="C64" t="s">
+        <v>33</v>
       </c>
       <c r="D64" t="s">
         <v>22</v>
@@ -1834,16 +2018,22 @@
       <c r="F64">
         <v>2018</v>
       </c>
-      <c r="H64" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="H64">
+        <v>17.192</v>
+      </c>
+      <c r="I64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>19</v>
       </c>
       <c r="B65" t="s">
         <v>20</v>
+      </c>
+      <c r="C65" t="s">
+        <v>33</v>
       </c>
       <c r="D65" t="s">
         <v>22</v>
@@ -1851,16 +2041,22 @@
       <c r="F65">
         <v>2019</v>
       </c>
-      <c r="H65" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="H65">
+        <v>17.192</v>
+      </c>
+      <c r="I65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>19</v>
       </c>
       <c r="B66" t="s">
         <v>20</v>
+      </c>
+      <c r="C66" t="s">
+        <v>29</v>
       </c>
       <c r="D66" t="s">
         <v>23</v>
@@ -1868,16 +2064,19 @@
       <c r="F66">
         <v>1990</v>
       </c>
-      <c r="H66" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="M66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>19</v>
       </c>
       <c r="B67" t="s">
         <v>20</v>
+      </c>
+      <c r="C67" t="s">
+        <v>29</v>
       </c>
       <c r="D67" t="s">
         <v>23</v>
@@ -1885,16 +2084,19 @@
       <c r="F67">
         <v>1991</v>
       </c>
-      <c r="H67" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="M67" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>19</v>
       </c>
       <c r="B68" t="s">
         <v>20</v>
+      </c>
+      <c r="C68" t="s">
+        <v>29</v>
       </c>
       <c r="D68" t="s">
         <v>23</v>
@@ -1902,16 +2104,19 @@
       <c r="F68">
         <v>1992</v>
       </c>
-      <c r="H68" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="M68" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>19</v>
       </c>
       <c r="B69" t="s">
         <v>20</v>
+      </c>
+      <c r="C69" t="s">
+        <v>29</v>
       </c>
       <c r="D69" t="s">
         <v>23</v>
@@ -1919,16 +2124,19 @@
       <c r="F69">
         <v>1993</v>
       </c>
-      <c r="H69" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="M69" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>19</v>
       </c>
       <c r="B70" t="s">
         <v>20</v>
+      </c>
+      <c r="C70" t="s">
+        <v>29</v>
       </c>
       <c r="D70" t="s">
         <v>23</v>
@@ -1936,16 +2144,19 @@
       <c r="F70">
         <v>1994</v>
       </c>
-      <c r="H70" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="M70" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>19</v>
       </c>
       <c r="B71" t="s">
         <v>20</v>
+      </c>
+      <c r="C71" t="s">
+        <v>29</v>
       </c>
       <c r="D71" t="s">
         <v>23</v>
@@ -1953,16 +2164,19 @@
       <c r="F71">
         <v>1995</v>
       </c>
-      <c r="H71" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="M71" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>19</v>
       </c>
       <c r="B72" t="s">
         <v>20</v>
+      </c>
+      <c r="C72" t="s">
+        <v>29</v>
       </c>
       <c r="D72" t="s">
         <v>23</v>
@@ -1970,16 +2184,19 @@
       <c r="F72">
         <v>1996</v>
       </c>
-      <c r="H72" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="M72" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>19</v>
       </c>
       <c r="B73" t="s">
         <v>20</v>
+      </c>
+      <c r="C73" t="s">
+        <v>29</v>
       </c>
       <c r="D73" t="s">
         <v>23</v>
@@ -1987,16 +2204,19 @@
       <c r="F73">
         <v>1997</v>
       </c>
-      <c r="H73" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="M73" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>19</v>
       </c>
       <c r="B74" t="s">
         <v>20</v>
+      </c>
+      <c r="C74" t="s">
+        <v>29</v>
       </c>
       <c r="D74" t="s">
         <v>23</v>
@@ -2004,16 +2224,19 @@
       <c r="F74">
         <v>1998</v>
       </c>
-      <c r="H74" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="M74" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>19</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
+      </c>
+      <c r="C75" t="s">
+        <v>29</v>
       </c>
       <c r="D75" t="s">
         <v>23</v>
@@ -2021,16 +2244,19 @@
       <c r="F75">
         <v>1999</v>
       </c>
-      <c r="H75" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="M75" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>19</v>
       </c>
       <c r="B76" t="s">
         <v>20</v>
+      </c>
+      <c r="C76" t="s">
+        <v>29</v>
       </c>
       <c r="D76" t="s">
         <v>23</v>
@@ -2038,16 +2264,19 @@
       <c r="F76">
         <v>2000</v>
       </c>
-      <c r="H76" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="M76" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>19</v>
       </c>
       <c r="B77" t="s">
         <v>20</v>
+      </c>
+      <c r="C77" t="s">
+        <v>29</v>
       </c>
       <c r="D77" t="s">
         <v>23</v>
@@ -2055,16 +2284,19 @@
       <c r="F77">
         <v>2001</v>
       </c>
-      <c r="H77" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="M77" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>19</v>
       </c>
       <c r="B78" t="s">
         <v>20</v>
+      </c>
+      <c r="C78" t="s">
+        <v>29</v>
       </c>
       <c r="D78" t="s">
         <v>23</v>
@@ -2072,16 +2304,19 @@
       <c r="F78">
         <v>2002</v>
       </c>
-      <c r="H78" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="M78" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>19</v>
       </c>
       <c r="B79" t="s">
         <v>20</v>
+      </c>
+      <c r="C79" t="s">
+        <v>29</v>
       </c>
       <c r="D79" t="s">
         <v>23</v>
@@ -2089,16 +2324,19 @@
       <c r="F79">
         <v>2003</v>
       </c>
-      <c r="H79" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="M79" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>19</v>
       </c>
       <c r="B80" t="s">
         <v>20</v>
+      </c>
+      <c r="C80" t="s">
+        <v>29</v>
       </c>
       <c r="D80" t="s">
         <v>23</v>
@@ -2106,16 +2344,19 @@
       <c r="F80">
         <v>2004</v>
       </c>
-      <c r="H80" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="M80" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>19</v>
       </c>
       <c r="B81" t="s">
         <v>20</v>
+      </c>
+      <c r="C81" t="s">
+        <v>29</v>
       </c>
       <c r="D81" t="s">
         <v>23</v>
@@ -2123,16 +2364,19 @@
       <c r="F81">
         <v>2005</v>
       </c>
-      <c r="H81" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="M81" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>19</v>
       </c>
       <c r="B82" t="s">
         <v>20</v>
+      </c>
+      <c r="C82" t="s">
+        <v>29</v>
       </c>
       <c r="D82" t="s">
         <v>23</v>
@@ -2140,16 +2384,19 @@
       <c r="F82">
         <v>2006</v>
       </c>
-      <c r="H82" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="M82" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>19</v>
       </c>
       <c r="B83" t="s">
         <v>20</v>
+      </c>
+      <c r="C83" t="s">
+        <v>29</v>
       </c>
       <c r="D83" t="s">
         <v>23</v>
@@ -2157,16 +2404,19 @@
       <c r="F83">
         <v>2007</v>
       </c>
-      <c r="H83" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="M83" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>19</v>
       </c>
       <c r="B84" t="s">
         <v>20</v>
+      </c>
+      <c r="C84" t="s">
+        <v>29</v>
       </c>
       <c r="D84" t="s">
         <v>23</v>
@@ -2174,16 +2424,19 @@
       <c r="F84">
         <v>2008</v>
       </c>
-      <c r="H84" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="M84" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>19</v>
       </c>
       <c r="B85" t="s">
         <v>20</v>
+      </c>
+      <c r="C85" t="s">
+        <v>29</v>
       </c>
       <c r="D85" t="s">
         <v>23</v>
@@ -2191,16 +2444,19 @@
       <c r="F85">
         <v>2009</v>
       </c>
-      <c r="H85" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="M85" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>19</v>
       </c>
       <c r="B86" t="s">
         <v>20</v>
+      </c>
+      <c r="C86" t="s">
+        <v>29</v>
       </c>
       <c r="D86" t="s">
         <v>23</v>
@@ -2208,16 +2464,19 @@
       <c r="F86">
         <v>2010</v>
       </c>
-      <c r="H86" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="M86" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>19</v>
       </c>
       <c r="B87" t="s">
         <v>20</v>
+      </c>
+      <c r="C87" t="s">
+        <v>29</v>
       </c>
       <c r="D87" t="s">
         <v>23</v>
@@ -2225,16 +2484,19 @@
       <c r="F87">
         <v>2011</v>
       </c>
-      <c r="H87" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="M87" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>19</v>
       </c>
       <c r="B88" t="s">
         <v>20</v>
+      </c>
+      <c r="C88" t="s">
+        <v>29</v>
       </c>
       <c r="D88" t="s">
         <v>23</v>
@@ -2242,16 +2504,19 @@
       <c r="F88">
         <v>2012</v>
       </c>
-      <c r="H88" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="M88" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>19</v>
       </c>
       <c r="B89" t="s">
         <v>20</v>
+      </c>
+      <c r="C89" t="s">
+        <v>29</v>
       </c>
       <c r="D89" t="s">
         <v>23</v>
@@ -2259,16 +2524,19 @@
       <c r="F89">
         <v>2013</v>
       </c>
-      <c r="H89" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="M89" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>19</v>
       </c>
       <c r="B90" t="s">
         <v>20</v>
+      </c>
+      <c r="C90" t="s">
+        <v>29</v>
       </c>
       <c r="D90" t="s">
         <v>23</v>
@@ -2276,16 +2544,19 @@
       <c r="F90">
         <v>2014</v>
       </c>
-      <c r="H90" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="M90" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>19</v>
       </c>
       <c r="B91" t="s">
         <v>20</v>
+      </c>
+      <c r="C91" t="s">
+        <v>29</v>
       </c>
       <c r="D91" t="s">
         <v>23</v>
@@ -2293,16 +2564,19 @@
       <c r="F91">
         <v>2015</v>
       </c>
-      <c r="H91" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="M91" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>19</v>
       </c>
       <c r="B92" t="s">
         <v>20</v>
+      </c>
+      <c r="C92" t="s">
+        <v>29</v>
       </c>
       <c r="D92" t="s">
         <v>23</v>
@@ -2310,16 +2584,19 @@
       <c r="F92">
         <v>2016</v>
       </c>
-      <c r="H92" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="M92" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>19</v>
       </c>
       <c r="B93" t="s">
         <v>20</v>
+      </c>
+      <c r="C93" t="s">
+        <v>29</v>
       </c>
       <c r="D93" t="s">
         <v>23</v>
@@ -2327,16 +2604,19 @@
       <c r="F93">
         <v>2017</v>
       </c>
-      <c r="H93" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="M93" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>19</v>
       </c>
       <c r="B94" t="s">
         <v>20</v>
+      </c>
+      <c r="C94" t="s">
+        <v>29</v>
       </c>
       <c r="D94" t="s">
         <v>23</v>
@@ -2344,16 +2624,19 @@
       <c r="F94">
         <v>2018</v>
       </c>
-      <c r="H94" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="M94" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>19</v>
       </c>
       <c r="B95" t="s">
         <v>20</v>
+      </c>
+      <c r="C95" t="s">
+        <v>29</v>
       </c>
       <c r="D95" t="s">
         <v>23</v>
@@ -2361,16 +2644,19 @@
       <c r="F95">
         <v>2019</v>
       </c>
-      <c r="H95" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="M95" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>19</v>
       </c>
       <c r="B96" t="s">
         <v>20</v>
+      </c>
+      <c r="C96" t="s">
+        <v>29</v>
       </c>
       <c r="D96" t="s">
         <v>24</v>
@@ -2379,15 +2665,18 @@
         <v>1990</v>
       </c>
       <c r="H96" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>19</v>
       </c>
       <c r="B97" t="s">
         <v>20</v>
+      </c>
+      <c r="C97" t="s">
+        <v>29</v>
       </c>
       <c r="D97" t="s">
         <v>24</v>
@@ -2396,15 +2685,18 @@
         <v>1991</v>
       </c>
       <c r="H97" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>19</v>
       </c>
       <c r="B98" t="s">
         <v>20</v>
+      </c>
+      <c r="C98" t="s">
+        <v>29</v>
       </c>
       <c r="D98" t="s">
         <v>24</v>
@@ -2413,15 +2705,18 @@
         <v>1992</v>
       </c>
       <c r="H98" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>19</v>
       </c>
       <c r="B99" t="s">
         <v>20</v>
+      </c>
+      <c r="C99" t="s">
+        <v>29</v>
       </c>
       <c r="D99" t="s">
         <v>24</v>
@@ -2430,15 +2725,18 @@
         <v>1993</v>
       </c>
       <c r="H99" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>19</v>
       </c>
       <c r="B100" t="s">
         <v>20</v>
+      </c>
+      <c r="C100" t="s">
+        <v>29</v>
       </c>
       <c r="D100" t="s">
         <v>24</v>
@@ -2447,15 +2745,18 @@
         <v>1994</v>
       </c>
       <c r="H100" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>19</v>
       </c>
       <c r="B101" t="s">
         <v>20</v>
+      </c>
+      <c r="C101" t="s">
+        <v>29</v>
       </c>
       <c r="D101" t="s">
         <v>24</v>
@@ -2464,15 +2765,18 @@
         <v>1995</v>
       </c>
       <c r="H101" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>19</v>
       </c>
       <c r="B102" t="s">
         <v>20</v>
+      </c>
+      <c r="C102" t="s">
+        <v>29</v>
       </c>
       <c r="D102" t="s">
         <v>24</v>
@@ -2481,15 +2785,18 @@
         <v>1996</v>
       </c>
       <c r="H102" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>19</v>
       </c>
       <c r="B103" t="s">
         <v>20</v>
+      </c>
+      <c r="C103" t="s">
+        <v>29</v>
       </c>
       <c r="D103" t="s">
         <v>24</v>
@@ -2498,15 +2805,18 @@
         <v>1997</v>
       </c>
       <c r="H103" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>19</v>
       </c>
       <c r="B104" t="s">
         <v>20</v>
+      </c>
+      <c r="C104" t="s">
+        <v>29</v>
       </c>
       <c r="D104" t="s">
         <v>24</v>
@@ -2515,15 +2825,18 @@
         <v>1998</v>
       </c>
       <c r="H104" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>19</v>
       </c>
       <c r="B105" t="s">
         <v>20</v>
+      </c>
+      <c r="C105" t="s">
+        <v>29</v>
       </c>
       <c r="D105" t="s">
         <v>24</v>
@@ -2532,15 +2845,18 @@
         <v>1999</v>
       </c>
       <c r="H105" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>19</v>
       </c>
       <c r="B106" t="s">
         <v>20</v>
+      </c>
+      <c r="C106" t="s">
+        <v>29</v>
       </c>
       <c r="D106" t="s">
         <v>24</v>
@@ -2549,15 +2865,18 @@
         <v>2000</v>
       </c>
       <c r="H106" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>19</v>
       </c>
       <c r="B107" t="s">
         <v>20</v>
+      </c>
+      <c r="C107" t="s">
+        <v>29</v>
       </c>
       <c r="D107" t="s">
         <v>24</v>
@@ -2566,15 +2885,18 @@
         <v>2001</v>
       </c>
       <c r="H107" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>19</v>
       </c>
       <c r="B108" t="s">
         <v>20</v>
+      </c>
+      <c r="C108" t="s">
+        <v>29</v>
       </c>
       <c r="D108" t="s">
         <v>24</v>
@@ -2583,15 +2905,18 @@
         <v>2002</v>
       </c>
       <c r="H108" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>19</v>
       </c>
       <c r="B109" t="s">
         <v>20</v>
+      </c>
+      <c r="C109" t="s">
+        <v>29</v>
       </c>
       <c r="D109" t="s">
         <v>24</v>
@@ -2600,15 +2925,18 @@
         <v>2003</v>
       </c>
       <c r="H109" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>19</v>
       </c>
       <c r="B110" t="s">
         <v>20</v>
+      </c>
+      <c r="C110" t="s">
+        <v>29</v>
       </c>
       <c r="D110" t="s">
         <v>24</v>
@@ -2617,15 +2945,18 @@
         <v>2004</v>
       </c>
       <c r="H110" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>19</v>
       </c>
       <c r="B111" t="s">
         <v>20</v>
+      </c>
+      <c r="C111" t="s">
+        <v>29</v>
       </c>
       <c r="D111" t="s">
         <v>24</v>
@@ -2634,15 +2965,18 @@
         <v>2005</v>
       </c>
       <c r="H111" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>19</v>
       </c>
       <c r="B112" t="s">
         <v>20</v>
+      </c>
+      <c r="C112" t="s">
+        <v>29</v>
       </c>
       <c r="D112" t="s">
         <v>24</v>
@@ -2651,15 +2985,18 @@
         <v>2006</v>
       </c>
       <c r="H112" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>19</v>
       </c>
       <c r="B113" t="s">
         <v>20</v>
+      </c>
+      <c r="C113" t="s">
+        <v>29</v>
       </c>
       <c r="D113" t="s">
         <v>24</v>
@@ -2668,15 +3005,18 @@
         <v>2007</v>
       </c>
       <c r="H113" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>19</v>
       </c>
       <c r="B114" t="s">
         <v>20</v>
+      </c>
+      <c r="C114" t="s">
+        <v>29</v>
       </c>
       <c r="D114" t="s">
         <v>24</v>
@@ -2685,15 +3025,18 @@
         <v>2008</v>
       </c>
       <c r="H114" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>19</v>
       </c>
       <c r="B115" t="s">
         <v>20</v>
+      </c>
+      <c r="C115" t="s">
+        <v>29</v>
       </c>
       <c r="D115" t="s">
         <v>24</v>
@@ -2702,15 +3045,18 @@
         <v>2009</v>
       </c>
       <c r="H115" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>19</v>
       </c>
       <c r="B116" t="s">
         <v>20</v>
+      </c>
+      <c r="C116" t="s">
+        <v>29</v>
       </c>
       <c r="D116" t="s">
         <v>24</v>
@@ -2719,15 +3065,18 @@
         <v>2010</v>
       </c>
       <c r="H116" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>19</v>
       </c>
       <c r="B117" t="s">
         <v>20</v>
+      </c>
+      <c r="C117" t="s">
+        <v>29</v>
       </c>
       <c r="D117" t="s">
         <v>24</v>
@@ -2736,15 +3085,18 @@
         <v>2011</v>
       </c>
       <c r="H117" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>19</v>
       </c>
       <c r="B118" t="s">
         <v>20</v>
+      </c>
+      <c r="C118" t="s">
+        <v>29</v>
       </c>
       <c r="D118" t="s">
         <v>24</v>
@@ -2753,15 +3105,18 @@
         <v>2012</v>
       </c>
       <c r="H118" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>19</v>
       </c>
       <c r="B119" t="s">
         <v>20</v>
+      </c>
+      <c r="C119" t="s">
+        <v>29</v>
       </c>
       <c r="D119" t="s">
         <v>24</v>
@@ -2770,15 +3125,18 @@
         <v>2013</v>
       </c>
       <c r="H119" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>19</v>
       </c>
       <c r="B120" t="s">
         <v>20</v>
+      </c>
+      <c r="C120" t="s">
+        <v>29</v>
       </c>
       <c r="D120" t="s">
         <v>24</v>
@@ -2787,15 +3145,18 @@
         <v>2014</v>
       </c>
       <c r="H120" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>19</v>
       </c>
       <c r="B121" t="s">
         <v>20</v>
+      </c>
+      <c r="C121" t="s">
+        <v>29</v>
       </c>
       <c r="D121" t="s">
         <v>24</v>
@@ -2804,15 +3165,18 @@
         <v>2015</v>
       </c>
       <c r="H121" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>19</v>
       </c>
       <c r="B122" t="s">
         <v>20</v>
+      </c>
+      <c r="C122" t="s">
+        <v>29</v>
       </c>
       <c r="D122" t="s">
         <v>24</v>
@@ -2821,15 +3185,18 @@
         <v>2016</v>
       </c>
       <c r="H122" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>19</v>
       </c>
       <c r="B123" t="s">
         <v>20</v>
+      </c>
+      <c r="C123" t="s">
+        <v>29</v>
       </c>
       <c r="D123" t="s">
         <v>24</v>
@@ -2838,15 +3205,18 @@
         <v>2017</v>
       </c>
       <c r="H123" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>19</v>
       </c>
       <c r="B124" t="s">
         <v>20</v>
+      </c>
+      <c r="C124" t="s">
+        <v>29</v>
       </c>
       <c r="D124" t="s">
         <v>24</v>
@@ -2855,15 +3225,18 @@
         <v>2018</v>
       </c>
       <c r="H124" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>19</v>
       </c>
       <c r="B125" t="s">
         <v>20</v>
+      </c>
+      <c r="C125" t="s">
+        <v>29</v>
       </c>
       <c r="D125" t="s">
         <v>24</v>
@@ -2872,7 +3245,7 @@
         <v>2019</v>
       </c>
       <c r="H125" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
